--- a/AIIE2025 Project Model.xlsx
+++ b/AIIE2025 Project Model.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+  <si>
+    <t>Trial</t>
+  </si>
   <si>
     <t>Epoch</t>
   </si>
@@ -37,10 +40,13 @@
     <t>150 x 150</t>
   </si>
   <si>
+    <t>80% - test, 20% train</t>
+  </si>
+  <si>
+    <t>128 x 128</t>
+  </si>
+  <si>
     <t>60% - train, 40% - test</t>
-  </si>
-  <si>
-    <t>128 x 128</t>
   </si>
   <si>
     <t>70% - train, 30% - test</t>
@@ -72,15 +78,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF93C47D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE06666"/>
+        <bgColor rgb="FFE06666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFCC0000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border/>
     <border>
       <left style="thin">
@@ -206,6 +236,90 @@
       </top>
       <bottom style="thin">
         <color rgb="FFF6F8F9"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF93C47D"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF93C47D"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF93C47D"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF93C47D"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF93C47D"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF93C47D"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF93C47D"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF93C47D"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF93C47D"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF93C47D"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE06666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE06666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE06666"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE06666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE06666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE06666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE06666"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE06666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE06666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE06666"/>
       </bottom>
     </border>
     <border>
@@ -254,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -291,6 +405,34 @@
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="2" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="13" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -315,13 +457,13 @@
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -382,14 +524,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F19" displayName="Model" name="Model" id="1">
-  <tableColumns count="6">
-    <tableColumn name="Epoch" id="1"/>
-    <tableColumn name="Layers" id="2"/>
-    <tableColumn name="Batch Size" id="3"/>
-    <tableColumn name="Split" id="4"/>
-    <tableColumn name="Accuracy" id="5"/>
-    <tableColumn name="Image Size" id="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G19" displayName="Model" name="Model" id="1">
+  <tableColumns count="7">
+    <tableColumn name="Trial" id="1"/>
+    <tableColumn name="Epoch" id="2"/>
+    <tableColumn name="Layers" id="3"/>
+    <tableColumn name="Batch Size" id="4"/>
+    <tableColumn name="Split" id="5"/>
+    <tableColumn name="Accuracy" id="6"/>
+    <tableColumn name="Image Size" id="7"/>
   </tableColumns>
   <tableStyleInfo name="Hoja 1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -602,7 +745,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="22.63"/>
+    <col customWidth="1" min="1" max="7" width="22.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -621,307 +764,396 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="5">
         <v>3.0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="C2" s="5">
         <v>11.0</v>
       </c>
-      <c r="C2" s="5">
+      <c r="D2" s="5">
         <v>32.0</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6">
         <v>0.5</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>7</v>
+      <c r="G2" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="9">
         <v>10.0</v>
       </c>
-      <c r="B3" s="9">
+      <c r="C3" s="9">
         <v>11.0</v>
       </c>
-      <c r="C3" s="9">
+      <c r="D3" s="9">
         <v>32.0</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="10">
         <v>0.82</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="13">
+        <v>20.0</v>
+      </c>
+      <c r="C4" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="D4" s="13">
+        <v>32.0</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="B4" s="5">
-        <v>11.0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>32.0</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="F4" s="14">
         <v>0.95</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="G4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
     </row>
     <row r="5">
       <c r="A5" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="9">
         <v>3.0</v>
       </c>
-      <c r="B5" s="9">
+      <c r="C5" s="9">
         <v>9.0</v>
       </c>
-      <c r="C5" s="9">
+      <c r="D5" s="9">
         <v>16.0</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="10">
         <v>0.69</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>9</v>
+      <c r="G5" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="5">
         <v>10.0</v>
       </c>
-      <c r="B6" s="5">
+      <c r="C6" s="5">
         <v>9.0</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="5">
         <v>16.0</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
         <v>0.75</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>9</v>
+      <c r="G6" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="9">
         <v>20.0</v>
       </c>
-      <c r="B7" s="9">
+      <c r="C7" s="9">
         <v>9.0</v>
       </c>
-      <c r="C7" s="9">
+      <c r="D7" s="9">
         <v>16.0</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="10">
         <v>0.88</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>9</v>
+      <c r="G7" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="18">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="19">
         <v>3.0</v>
       </c>
-      <c r="B8" s="5">
+      <c r="C8" s="19">
         <v>15.0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D8" s="19">
         <v>64.0</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="E8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="20">
         <v>0.5</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="G8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
     </row>
     <row r="9">
       <c r="A9" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="9">
         <v>10.0</v>
       </c>
-      <c r="B9" s="9">
+      <c r="C9" s="9">
         <v>15.0</v>
       </c>
-      <c r="C9" s="9">
+      <c r="D9" s="9">
         <v>64.0</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="10">
         <v>0.53</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>11</v>
+      <c r="G9" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="12">
+      <c r="A10" s="24">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="25">
         <v>20.0</v>
       </c>
-      <c r="B10" s="5">
+      <c r="C10" s="5">
         <v>15.0</v>
       </c>
-      <c r="C10" s="13">
+      <c r="D10" s="25">
         <v>64.0</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="E10" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="6">
         <v>0.78</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="9">
         <v>30.0</v>
       </c>
-      <c r="B11" s="9"/>
       <c r="C11" s="9">
+        <v>9.0</v>
+      </c>
+      <c r="D11" s="9">
         <v>32.0</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="10">
         <v>0.94</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>7</v>
+      <c r="G11" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="5">
         <v>10.0</v>
       </c>
-      <c r="B12" s="5">
+      <c r="C12" s="5">
         <v>13.0</v>
       </c>
-      <c r="C12" s="5">
+      <c r="D12" s="5">
         <v>32.0</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6">
         <v>0.73</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>7</v>
+      <c r="G12" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="9">
         <v>30.0</v>
       </c>
-      <c r="B13" s="9">
+      <c r="C13" s="9">
         <v>13.0</v>
       </c>
-      <c r="C13" s="9">
+      <c r="D13" s="9">
         <v>32.0</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="10">
         <v>0.91</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>7</v>
+      <c r="G13" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="5">
         <v>50.0</v>
       </c>
-      <c r="B14" s="5">
+      <c r="C14" s="5">
         <v>9.0</v>
       </c>
-      <c r="C14" s="5">
+      <c r="D14" s="5">
         <v>32.0</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6">
         <v>0.94</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>7</v>
+      <c r="G14" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
     </row>
     <row r="17">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
